--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T16:43:35-04:00</t>
+    <t>2023-05-17T15:26:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:26:12-04:00</t>
+    <t>2023-05-23T11:50:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T11:50:31-04:00</t>
+    <t>2023-05-26T16:04:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T16:04:32-04:00</t>
+    <t>2023-05-30T15:29:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T15:29:53-04:00</t>
+    <t>2023-06-08T09:02:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T09:02:09-04:00</t>
+    <t>2023-06-08T10:27:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T10:27:07-04:00</t>
+    <t>2023-06-09T08:59:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T08:59:53-04:00</t>
+    <t>2023-06-26T13:45:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T13:45:18-04:00</t>
+    <t>2023-06-26T14:02:38-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T14:02:38-04:00</t>
+    <t>2023-06-27T11:58:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T11:58:55-04:00</t>
+    <t>2023-06-27T12:07:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T12:07:05-04:00</t>
+    <t>2023-06-27T13:18:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T13:18:32-04:00</t>
+    <t>2023-06-27T14:37:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:37:57-04:00</t>
+    <t>2023-06-27T14:58:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:58:12-04:00</t>
+    <t>2023-07-04T05:55:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,10 +279,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T05:55:31+00:00</t>
+    <t>2023-07-07T14:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Questionnaire co" r:id="rId4" sheetId="2"/>
-    <sheet name="Expansion" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:27:15+00:00</t>
+    <t>2023-07-07T14:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,31 +93,10 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>SSI</t>
-  </si>
-  <si>
-    <t>Supplemental Security Income (SSI)</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>Supplemental Nutrition Assistance Program (SNAP)</t>
-  </si>
-  <si>
-    <t>WIC</t>
-  </si>
-  <si>
-    <t>Special Supplemental Nutrition Program for Women, Infants, and Children (WIC)</t>
-  </si>
-  <si>
-    <t>TANFGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temporary Assistance for Needy Families (TANF), including Pass through Child Support General Assistance (GA) </t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t/>
@@ -128,36 +106,6 @@
   </si>
   <si>
     <t>https://voicecollab.ai/fhir/CodeSystem/financial-assistance</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>https://voicecollab.ai/fhir/CodeSystem/disability-status</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
 </sst>
 </file>
@@ -416,7 +364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,176 +378,26 @@
       <c r="A1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:44:27+00:00</t>
+    <t>2023-07-07T14:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:51:33+00:00</t>
+    <t>2023-07-11T16:10:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -227,10 +227,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T16:10:46-04:00</t>
+    <t>2023-07-25T13:28:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T13:28:49-04:00</t>
+    <t>2023-07-28T14:17:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T14:17:54-04:00</t>
+    <t>2023-08-01T11:06:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T11:06:47-04:00</t>
+    <t>2023-08-03T16:45:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:45:03-04:00</t>
+    <t>2023-08-04T11:46:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T11:46:30-04:00</t>
+    <t>2023-08-04T15:04:45-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T15:04:45-04:00</t>
+    <t>2023-08-08T14:12:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-08T14:12:31-04:00</t>
+    <t>2023-08-10T15:12:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T15:12:17-04:00</t>
+    <t>2023-08-16T16:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -227,10 +227,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T16:37:06+00:00</t>
+    <t>2023-08-16T17:53:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T17:53:24+00:00</t>
+    <t>2023-08-16T18:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T18:12:30+00:00</t>
+    <t>2023-08-16T22:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T22:53:49+00:00</t>
+    <t>2023-08-16T23:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T23:37:19+00:00</t>
+    <t>2023-08-21T16:52:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -227,10 +227,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T16:52:35-04:00</t>
+    <t>2023-08-21T17:33:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T17:33:05-04:00</t>
+    <t>2023-08-22T05:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -227,10 +227,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Questionnaire co" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Financial Aid Pr" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T05:01:43+00:00</t>
+    <t>2023-08-29T20:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T20:22:11+00:00</t>
+    <t>2023-09-15T16:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T16:24:43+00:00</t>
+    <t>2023-10-04T03:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T03:12:19+00:00</t>
+    <t>2023-10-04T15:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T15:51:42+00:00</t>
+    <t>2024-01-15T14:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-financial-assistance.xlsx
+++ b/vbai-fhir/ValueSet-financial-assistance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:18+00:00</t>
+    <t>2024-02-07T17:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
